--- a/home/home_3.xlsx
+++ b/home/home_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,101 +436,54 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>머물자리론</t>
+          <t>부산청년 로컬크리에이터 육성</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>사업내용</t>
+          <t>사업개요</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>모집개요</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>담당부서</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>청년 월세 지원</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>「청년월세 한시 특별지원」 사업 시행 알림</t>
+          <t>운영기관</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>목돈 마련이 어려운 청년의 안정적인 주거지원을 위해 임차보증금 대출과 이자를 지원하여
-        청년의 주거생활 안정에 기여</t>
+          <t>지역의 자원과 문화적 자산으로 혁신적인 아이디어를 결합해 사업적 가치를 창출하는 로컬크리에이터의 단계별 맞춤형 교육 및 집중성장 지원</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>사업기간 :'23. 2월 ~ 사업비 소진 시까지신청기간 :매월 1일 09:00 ~ 10일 18:00지원대상 :부산시 주민등록이 되어 있는 만19~34세 무주택 청년(신혼부부 제외)소득기준 : 본인(부부합산) 연소득 4천만원 이하※ 소득심사는 협약은행에서 별도 실시대상주택 : 임차보증금 2억원 이하이면서 전월세전환율 6.1%이하※ 건축물 대장상 주택이 아닌 곳은 불가※ 아파트를 제외한 주택유형의 경우 임대인이 신청일 기준 해당 주택 소유기간 3개월 미만인 경우, 보증신청 불가 등 협약은행 내규에 따라 협약은행에서 추가 심사 실시지원내용 :대출이자 연 2.0% 부산시 지원대출금리, 시 지원금리, 본인 부담금리에 대한 표대출금리시 지원금리본인 부담금리비고4.0%2.0%2.0%3.5%2.0%1.5%대출신청일 10.1. 이후대출취급은행 : 부산은행대출최대한도 : 1억원 이내(임차보증금의 90% 범위 내 → 나머지 본인 부담)* 실제 대출가능금액은 금융기관(한국주택금융공사, 부산은행) 제 규정에 따라 다르며, 부산시 자격요건에 해당되어 선정되더라도 부산은행과 한국주택금융공사에서 대출(보증)심사 및 신용평가, 소득심사는 별도 실시하며 그 결과에 따라 제외될 수 있음사업절차계약체결주택계약신청자신청 및 접수부산청년플랫폼  온라인 신청(매월 1~10일)신청자대상자 선정부산시 청년희망정책과(심사)부산시대상자 추천통보선정자, 부산은행 알림(매월말)부산시대출신청관련서류 부산은행 제출신청자대출실행 및 이차보전대출자격 평가 후 대출실행, 이차보전부산은행, 부산시월별 접수계획←→ 표를 가로로 스크롤 해주세요구분, 2월, 3월, 4월, 5월, 6월, 7월, 8월, 9월, 10월, 11월 접수계획에 대한 표구분2월3월4월5월6월신청기간2.1.~2.10.3.1.~3.10.4.1.~4.10.5.1.~5.10.6.1.~6.10.7월8월9월10월11월12월7.1.~7.10.8.1.~8.10.9.1.~9.10.10.1.~10.10.11.1.~11.10.12.1.~12.10.※ 유의사항12월 신청자에 대한 선정자 발표는 2024. 1. 5.(금) 예정신청시기 안내* 신규임차계약 : 잔금일 2024. 1. 15. ~ 2024. 1. 30.* 신규임차계약(대환) : 빠른날(잔금일, 전입일 중) 2023.10.16 ~ 2023.12.10* 갱신임차계약(대환) : 계약갱신일 2023.10.16 ~ 2023.12.10신청기간에는 주말·공휴일 관계없이 접수 가능공고문 유형별 신청시기(p4~5)를 반드시 참고해서 해당 월에 신청상기 신청기간은 사업비 소진에 따라 조기마감 될 수 있음</t>
+          <t>사 업 명 :2023년 부산청년 로컬크리에이터 육성사업 (부크모닝 프로젝트)사업내용 :청년 로컬크리에이터와 전문가 협업을 통한 브랜딩, 제품개발, 1:1 컨설팅, 인사이트 포럼 등사업대상 :사업자등록 및 주민등록상 소재지가 부산인 청년 로컬크리에이터사업기간 :2023. 7. ~ 11.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>목돈 마련이 어려운 청년의 안정적인 주거지원을 위해 임차보증금 대출과 이자를 지원하여
-        청년의 주거생활 안정에 기여</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>사업기간 :'23. 2월 ~ 사업비 소진 시까지신청기간 :매월 1일 09:00 ~ 10일 18:00지원대상 :부산시 주민등록이 되어 있는 만19~34세 무주택 청년(신혼부부 제외)소득기준 : 본인(부부합산) 연소득 4천만원 이하※ 소득심사는 협약은행에서 별도 실시대상주택 : 임차보증금 2억원 이하이면서 전월세전환율 6.1%이하※ 건축물 대장상 주택이 아닌 곳은 불가※ 아파트를 제외한 주택유형의 경우 임대인이 신청일 기준 해당 주택 소유기간 3개월 미만인 경우, 보증신청 불가 등 협약은행 내규에 따라 협약은행에서 추가 심사 실시지원내용 :대출이자 연 2.0% 부산시 지원대출금리, 시 지원금리, 본인 부담금리에 대한 표대출금리시 지원금리본인 부담금리비고4.0%2.0%2.0%3.5%2.0%1.5%대출신청일 10.1. 이후대출취급은행 : 부산은행대출최대한도 : 1억원 이내(임차보증금의 90% 범위 내 → 나머지 본인 부담)* 실제 대출가능금액은 금융기관(한국주택금융공사, 부산은행) 제 규정에 따라 다르며, 부산시 자격요건에 해당되어 선정되더라도 부산은행과 한국주택금융공사에서 대출(보증)심사 및 신용평가, 소득심사는 별도 실시하며 그 결과에 따라 제외될 수 있음사업절차계약체결주택계약신청자신청 및 접수부산청년플랫폼  온라인 신청(매월 1~10일)신청자대상자 선정부산시 청년희망정책과(심사)부산시대상자 추천통보선정자, 부산은행 알림(매월말)부산시대출신청관련서류 부산은행 제출신청자대출실행 및 이차보전대출자격 평가 후 대출실행, 이차보전부산은행, 부산시월별 접수계획←→ 표를 가로로 스크롤 해주세요구분, 2월, 3월, 4월, 5월, 6월, 7월, 8월, 9월, 10월, 11월 접수계획에 대한 표구분2월3월4월5월6월신청기간2.1.~2.10.3.1.~3.10.4.1.~4.10.5.1.~5.10.6.1.~6.10.7월8월9월10월11월12월7.1.~7.10.8.1.~8.10.9.1.~9.10.10.1.~10.10.11.1.~11.10.12.1.~12.10.※ 유의사항12월 신청자에 대한 선정자 발표는 2024. 1. 5.(금) 예정신청시기 안내* 신규임차계약 : 잔금일 2024. 1. 15. ~ 2024. 1. 30.* 신규임차계약(대환) : 빠른날(잔금일, 전입일 중) 2023.10.16 ~ 2023.12.10* 갱신임차계약(대환) : 계약갱신일 2023.10.16 ~ 2023.12.10신청기간에는 주말·공휴일 관계없이 접수 가능공고문 유형별 신청시기(p4~5)를 반드시 참고해서 해당 월에 신청상기 신청기간은 사업비 소진에 따라 조기마감 될 수 있음</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>신청기간 :2022년 8월 22일 09시 ~ 2023년 8월 21일 24시지원대상 :만 19~34세 이하 부모님과 별도거주 무주택 청년소득기준 : (원가구) 기준 중위소득 100% 이하 &amp; (청년독립가구) 기준 중위소득 60% 이하주택기준 : 임차보증금 5천만원 + 월세 60만원 이하(보증금 월세 환산액과 월세액 합산 70만원 이하)※ 월세 환산액 = 임차보증금 × 2.5% ÷ 12개월지원대상자 여부 자가진단(모의계산) 서비스바로가기지원내용 :생애 1회에 한하여 月 20만원씩 최대 12개월(회) 간 지원※ 실제 납부하는 월세의 최대 20만원까지 지원(임차보증금, 관리비 등 제외)지원방법 :청년 본인 계좌로 현금 지급신청방법 :온라인 : 복지로(https://www.bokjiro.go.kr) 홈페이지 접속바로가기오프라인 : 주소지 관할 주민센터일정’22. 8. 22. ~ ’23. 8. 21. : 신청·접수’22. 10. ~ : 소득재산 조사 및 대상자 결정’22. 11. ~ ’24. 12. : 월세 지급전담 콜센터 운영(LH)1600-0777구·군 문의처←→ 표를 가로로 스크롤 해주세요구군, 면적, 공간활용에 관한 표구군대표전화해당부서구군대표전화해당부서중구051)600-4000051)600-4472해운대구051)749-4000051)749-4832서구051)240-4000051)240-6685사하구051)220-4000051)220-5951동구051)440-4000051)440-4501금정구051)519-4000051)519-4874영도구051)419-4000051)419-4484강서구051)970-4000051)970-4478부산진구051)605-4000051)605-6342연제구051)665-4000051)665-5171동래구051)550-4000051)550-4934수영구051)610-4000051)610-4827남구051)607-4000051)607-3661사상구051)310-4000051)310-5206051)310-4610북구051)309-4000051)309-5171기장군051)051)709-4000051)709-4394</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>부산광역시 청년희망정책과(☎. 051-120)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>부산시에 거주하는 청년들의 주거비 부담을 덜어줌으로써 청년들의 주거독립을 지원하고 지역에서의 정주를 유도</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>부산시가 주관하는 「청년월세 지원사업」은 ‘22년부터 '24년까지 국토부가 주관하는 「청년월세 한시 특별지원」사업으로 대체됩니다.「청년월세 한시 특별지원 사업」은 ’22. 8. 22.부터 '23. 8. 21.까지 신청받을 예정이며 자세한 내용은 사업 매뉴얼를 참고하여 주시기 바랍니다.청년월세 한시 특별지원 사업 매뉴얼※ 제출서류는 매뉴얼 p.8, p.30~ 참고하여 주시기 바랍니다.</t>
+          <t>접수기간 :2023. 7. 5.(수) ~ 7. 20.(목) 18:00까지부산일자리정보망(busanjob.net) 온라인 접수바로가기</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>부산광역시 청년희망정책과 (☎ 051-888-7885)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>부산테크노파크 (☎ 051-921-6001)</t>
         </is>
       </c>
     </row>
